--- a/reorderedLatLon.xlsx
+++ b/reorderedLatLon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuliannaEvans\Documents\MATLAB\AOE 4165_ Senior Design\TwitterTestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{616F9E3E-F5D8-40C6-8BD7-C998AD0EE7D1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B34917-90F3-43BD-A483-9A23F7834C0E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" xr2:uid="{064FF931-5377-4472-B2E5-E224C70CCB09}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>cmd_num</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>orbit</t>
   </si>
 </sst>
 </file>
@@ -387,92 +390,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79211205-6ECA-44A9-8D6E-E90DC4960814}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25.687000000000001</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>7.4669999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-49.526000000000003</v>
+      </c>
+      <c r="D2">
+        <v>9.2530000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>37.207000000000001</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>-80.408000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25.687000000000001</v>
+      </c>
+      <c r="D3">
+        <v>7.4669999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15.209</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>-90.259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-14.776999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-135.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-14.776999999999999</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>-135.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-50.35</v>
+      </c>
+      <c r="D5">
+        <v>-135.65700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-50.35</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>-135.65700000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15.209</v>
+      </c>
+      <c r="D6">
+        <v>-90.259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-49.526000000000003</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>9.2530000000000001</v>
+        <v>37.207000000000001</v>
+      </c>
+      <c r="D7">
+        <v>-80.408000000000001</v>
       </c>
     </row>
   </sheetData>
